--- a/tesla_mx/20210825 tesla_mx-test.xlsx
+++ b/tesla_mx/20210825 tesla_mx-test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE49JF091270?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E23JF234142?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -492,22 +492,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D2" t="n">
-        <v>99000</v>
+        <v>81300</v>
       </c>
       <c r="E2" t="n">
-        <v>39027</v>
+        <v>45887</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100D Ludicrous Performance All-Wheel Drive</t>
+          <t>100D Long Range All-Wheel Drive</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pearl White Multi-Coat Paint</t>
+          <t>Midnight Silver Metallic Paint</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -517,14 +517,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH4,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPW,$PI01,$IX00,$X001,$LP01,$LT3W,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PPSW,$PK00,$X031,$PF01,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02W,$ME02,$QLPW,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSH5,$TW01,$MT10L,$UTSB,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APFB,$APH4,$APBS,$X028,$BTX6,$BS00,$CC01,$BCMB,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU00,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPW,$PI01,$IX00,$X001,$LP01,$LT3W,$MI02,$X037,$MDLX,$DV4W,$X025,$X003,$PMNG,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02W,$ME02,$QLPW,$SR05,$SP00,$X021,$SC04,$SU01,$TRA0,$TR00,$TIP0,$DSH5,$TW00,$MT10A,$UTSB,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE40JF093022?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E21HF191446?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,19 +536,19 @@
         <v>2018</v>
       </c>
       <c r="D3" t="n">
-        <v>106100</v>
+        <v>95600</v>
       </c>
       <c r="E3" t="n">
-        <v>43307</v>
+        <v>34783</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100D Ludicrous Performance All-Wheel Drive</t>
+          <t>100D Long Range All-Wheel Drive</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pearl White Multi-Coat Paint</t>
+          <t>Deep Blue Metallic Paint</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -558,14 +558,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPP,$PI01,$IX00,$X001,$LP01,$LT5P,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PPSW,$PK00,$X031,$PF01,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02P,$ME02,$QLPP,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSH5,$TW01,$MT10L,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$BS00,$CC02,$BCMB,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU00,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPW,$PI01,$IX00,$X001,$LP01,$LT3W,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PPSB,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02W,$ME02,$QLPW,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSHG,$TW01,$MT10A,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCDE48JF136193?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E24JF246901?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,10 +577,10 @@
         <v>2018</v>
       </c>
       <c r="D4" t="n">
-        <v>112300</v>
+        <v>99200</v>
       </c>
       <c r="E4" t="n">
-        <v>44866</v>
+        <v>39027</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -599,14 +599,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH4,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC01,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDBA,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBWS,$PI01,$IX00,$X001,$LP01,$LT6W,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PPSW,$PK00,$X031,$PF01,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S07W,$ME02,$QLWS,$SR05,$SP00,$X021,$SC04,$SU01,$TRA0,$TR00,$TIP0,$DSHG,$TW01,$MT10L,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH4,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPW,$PI01,$IX00,$X001,$LP01,$LT3W,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PPSW,$PK00,$X031,$PF01,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02W,$ME02,$QLPW,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSH5,$TW01,$MT10L,$UTSB,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE4XJF104804?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E24HF229204?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,10 +618,10 @@
         <v>2018</v>
       </c>
       <c r="D5" t="n">
-        <v>120000</v>
+        <v>106800</v>
       </c>
       <c r="E5" t="n">
-        <v>14298</v>
+        <v>43307</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -640,14 +640,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH4,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBWS,$PI01,$IX00,$X001,$LP01,$LT6W,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PPSW,$PK00,$X031,$PF01,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S07W,$ME02,$QLWS,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSHG,$TW00,$MT10L,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPP,$PI01,$IX00,$X001,$LP01,$LT5P,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PPSW,$PK00,$X031,$PF01,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02P,$ME02,$QLPP,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSH5,$TW01,$MT10L,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCAE29GF001861?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E27JF260923?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D6" t="n">
-        <v>66500</v>
+        <v>111200</v>
       </c>
       <c r="E6" t="n">
-        <v>54085</v>
+        <v>32198</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>90D All-Wheel Drive</t>
+          <t>100D Ludicrous Performance All-Wheel Drive</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Titanium Metallic Paint</t>
+          <t>Deep Blue Metallic Paint</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -681,14 +681,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP00,$AH01,$AD15,$GLFR,$AU01,$X042,$DA02,$APH1,$APD2,$X028,$BTX4,$BS00,$CC03,$BC0B,$CH00,$CW00,$COUS,$X040,$IDHM,$X026,$DRLH,$AF02,$FG02,$FR02,$X007,$X011,$PI01,$IX01,$X001,$LP01,$LT3T,$MI00,$X037,$MDLX,$DV4W,$X025,$X003,$PPTI,$PA00,$PS00,$PK00,$X031,$PF00,$TM00,$BR00,$RENA,$RFPX,$USST,$X013,$S06T,$ME02,$QLET,$SR01,$SP00,$X021,$SC04,$SU01,$TP03,$TRA1,$TR01,$TIC4,$DSH7,$TW00,$MT90A,$UTAB,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPP,$PI01,$IX00,$X001,$LP01,$LT5P,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PPSB,$PK00,$X031,$PF01,$X044,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02P,$ME02,$QLPP,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSH5,$TW01,$MT10L,$UTSB,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCDE28JF102561?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E25HF229454?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -700,19 +700,19 @@
         <v>2018</v>
       </c>
       <c r="D7" t="n">
-        <v>71800</v>
+        <v>113200</v>
       </c>
       <c r="E7" t="n">
-        <v>35717</v>
+        <v>44866</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>75D All-Wheel Drive</t>
+          <t>100D Ludicrous Performance All-Wheel Drive</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Solid Black Paint</t>
+          <t>Pearl White Multi-Coat Paint</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -722,14 +722,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH4,$APPF,$X028,$BTX5,$BS00,$CC01,$BCMB,$CH05,$CF00,$CW00,$COUS,$X040,$IDBA,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBTB,$PI00,$IX00,$X001,$LP01,$LT1B,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PBSB,$PK00,$X031,$PF00,$X043,$TM00,$BR04,$RCX0,$RENA,$RFPX,$USSB,$X014,$S01B,$ME02,$QPBT,$SR05,$SP00,$X021,$SC04,$SU01,$TRA0,$TR00,$TIC4,$DSHG,$TW01,$MT75A,$UTPB,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH4,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC01,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDBA,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBWS,$PI01,$IX00,$X001,$LP01,$LT6W,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PPSW,$PK00,$X031,$PF01,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S07W,$ME02,$QLWS,$SR05,$SP00,$X021,$SC04,$SU01,$TRA0,$TR00,$TIP0,$DSHG,$TW01,$MT10L,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCDE24JF111158?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E23JF259445?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -741,19 +741,19 @@
         <v>2018</v>
       </c>
       <c r="D8" t="n">
-        <v>77200</v>
+        <v>120100</v>
       </c>
       <c r="E8" t="n">
-        <v>31492</v>
+        <v>14298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>75D All-Wheel Drive</t>
+          <t>100D Ludicrous Performance All-Wheel Drive</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Solid Black Paint</t>
+          <t>Pearl White Multi-Coat Paint</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -763,14 +763,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH4,$APPF,$X028,$BTX5,$BS00,$CC01,$BCMB,$CH05,$CF00,$CW00,$COUS,$X040,$IDOK,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INLFC,$PI00,$IX00,$X001,$LP01,$LT5C,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PBSB,$PK00,$X031,$PF00,$X043,$TM00,$BR04,$RCX0,$RENA,$RFPX,$USSB,$X014,$S02C,$ME02,$QLFC,$SR05,$SP00,$X021,$SC04,$SU01,$TRA0,$TR00,$TIC4,$DSHG,$TW01,$MT75A,$UTZW,$WTSC,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH4,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBWS,$PI01,$IX00,$X001,$LP01,$LT6W,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PPSW,$PK00,$X031,$PF01,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S07W,$ME02,$QLWS,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSHG,$TW00,$MT10L,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE28HF062688?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E21JF263302?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -779,22 +779,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>83200</v>
+        <v>66500</v>
       </c>
       <c r="E9" t="n">
-        <v>34904</v>
+        <v>54085</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100D Long Range All-Wheel Drive</t>
+          <t>90D All-Wheel Drive</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Solid Black Paint</t>
+          <t>Titanium Metallic Paint</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -804,14 +804,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APFB,$APH4,$APBS,$X028,$BTX6,$BS00,$CC02,$BCMB,$CH04,$CF00,$CW02,$COUS,$X040,$IDBO,$X026,$DRLH,$DU00,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INLPC,$PI01,$IX00,$X001,$LP01,$LT5C,$MI02,$X037,$MDLX,$DV4W,$X025,$X003,$PBSB,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02C,$ME02,$QLPC,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSH5,$TW01,$MT10A,$UTZW,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP00,$AH01,$AD15,$GLFR,$AU01,$X042,$DA02,$APH1,$APD2,$X028,$BTX4,$BS00,$CC03,$BC0B,$CH00,$CW00,$COUS,$X040,$IDHM,$X026,$DRLH,$AF02,$FG02,$FR02,$X007,$X011,$PI01,$IX01,$X001,$LP01,$LT3T,$MI00,$X037,$MDLX,$DV4W,$X025,$X003,$PPTI,$PA00,$PS00,$PK00,$X031,$PF00,$TM00,$BR00,$RENA,$RFPX,$USST,$X013,$S06T,$ME02,$QLET,$SR01,$SP00,$X021,$SC04,$SU01,$TP03,$TRA1,$TR01,$TIC4,$DSH7,$TW00,$MT90A,$UTAB,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE28JF091002?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E29JF260762?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -823,19 +823,19 @@
         <v>2018</v>
       </c>
       <c r="D10" t="n">
-        <v>90500</v>
+        <v>71800</v>
       </c>
       <c r="E10" t="n">
-        <v>30679</v>
+        <v>35717</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>100D Long Range All-Wheel Drive</t>
+          <t>75D All-Wheel Drive</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Midnight Silver Metallic Paint</t>
+          <t>Solid Black Paint</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -845,14 +845,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH3,$APPF,$X028,$BTX6,$BS00,$CC02,$BCMB,$CH04,$CF00,$CW00,$COUS,$X040,$IDBA,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBTB,$PI00,$IX00,$X001,$LP01,$LT1B,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PMNG,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X014,$S01B,$ME02,$QPBT,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSH5,$TW01,$MT10A,$UTPB,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH4,$APPF,$X028,$BTX5,$BS00,$CC01,$BCMB,$CH05,$CF00,$CW00,$COUS,$X040,$IDBA,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBTB,$PI00,$IX00,$X001,$LP01,$LT1B,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PBSB,$PK00,$X031,$PF00,$X043,$TM00,$BR04,$RCX0,$RENA,$RFPX,$USSB,$X014,$S01B,$ME02,$QPBT,$SR05,$SP00,$X021,$SC04,$SU01,$TRA0,$TR00,$TIC4,$DSHG,$TW01,$MT75A,$UTPB,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCAE29JF102227?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E22JF264202?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -864,19 +864,19 @@
         <v>2018</v>
       </c>
       <c r="D11" t="n">
-        <v>90600</v>
+        <v>77200</v>
       </c>
       <c r="E11" t="n">
-        <v>25463</v>
+        <v>31492</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100D Long Range All-Wheel Drive</t>
+          <t>75D All-Wheel Drive</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Obsidian Black Metallic Paint</t>
+          <t>Solid Black Paint</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -886,14 +886,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH3,$APPF,$X028,$BTX6,$BS00,$CC04,$BCMB,$CH04,$CF00,$CW00,$COUS,$X040,$IDBA,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBTB,$PI00,$IX00,$X001,$LP01,$LT1B,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PMBL,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X014,$S01B,$ME02,$QPBT,$SR06,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSHG,$TW01,$MT10A,$UTPB,$WTSC,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH4,$APPF,$X028,$BTX5,$BS00,$CC01,$BCMB,$CH05,$CF00,$CW00,$COUS,$X040,$IDOK,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INLFC,$PI00,$IX00,$X001,$LP01,$LT5C,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PBSB,$PK00,$X031,$PF00,$X043,$TM00,$BR04,$RCX0,$RENA,$RFPX,$USSB,$X014,$S02C,$ME02,$QLFC,$SR05,$SP00,$X021,$SC04,$SU01,$TRA0,$TR00,$TIC4,$DSHG,$TW01,$MT75A,$UTZW,$WTSC,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCAE27JF109399?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E27JF266513?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D12" t="n">
-        <v>90600</v>
+        <v>83200</v>
       </c>
       <c r="E12" t="n">
-        <v>61038</v>
+        <v>34904</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pearl White Multi-Coat Paint</t>
+          <t>Solid Black Paint</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -927,14 +927,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH4,$APPF,$X028,$BTX6,$BS00,$CC04,$BCMB,$CH04,$CF00,$CW02,$COUS,$X040,$IDOK,$X026,$DRLH,$DU00,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INLFC,$PI01,$IX00,$X001,$LP01,$LT5C,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PPSW,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02C,$ME02,$QLFC,$SR06,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSHG,$TW01,$MT10A,$UTZW,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APFB,$APH4,$APBS,$X028,$BTX6,$BS00,$CC02,$BCMB,$CH04,$CF00,$CW02,$COUS,$X040,$IDBO,$X026,$DRLH,$DU00,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INLPC,$PI01,$IX00,$X001,$LP01,$LT5C,$MI02,$X037,$MDLX,$DV4W,$X025,$X003,$PBSB,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02C,$ME02,$QLPC,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSH5,$TW01,$MT10A,$UTZW,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE24JF103002?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E48HF215162?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -946,10 +946,10 @@
         <v>2018</v>
       </c>
       <c r="D13" t="n">
-        <v>92000</v>
+        <v>90500</v>
       </c>
       <c r="E13" t="n">
-        <v>43354</v>
+        <v>30679</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -968,14 +968,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH4,$APPF,$X028,$BTX6,$BS00,$CC02,$BCMB,$CH04,$CF00,$CW00,$COUS,$X040,$IDCF,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INLPP,$PI00,$IX00,$X001,$LP01,$LT5P,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PMNG,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X014,$S02P,$ME02,$QLPP,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSHG,$TW01,$MT10A,$UTZW,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH3,$APPF,$X028,$BTX6,$BS00,$CC02,$BCMB,$CH04,$CF00,$CW00,$COUS,$X040,$IDBA,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBTB,$PI00,$IX00,$X001,$LP01,$LT1B,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PMNG,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X014,$S01B,$ME02,$QPBT,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSH5,$TW01,$MT10A,$UTPB,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCAE22JF103428?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E27JF261733?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -987,10 +987,10 @@
         <v>2018</v>
       </c>
       <c r="D14" t="n">
-        <v>92200</v>
+        <v>90600</v>
       </c>
       <c r="E14" t="n">
-        <v>34231</v>
+        <v>25463</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Deep Blue Metallic Paint</t>
+          <t>Obsidian Black Metallic Paint</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1009,14 +1009,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH4,$APPF,$X028,$BTX6,$BS00,$CC04,$BCMB,$CH04,$CF00,$CW00,$COUS,$X040,$IDOK,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INLPC,$PI00,$IX00,$X001,$LP01,$LT5C,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PPSB,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X014,$S02C,$ME02,$QLPC,$SR06,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSHG,$TW01,$MT10A,$UTZW,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH3,$APPF,$X028,$BTX6,$BS00,$CC04,$BCMB,$CH04,$CF00,$CW00,$COUS,$X040,$IDBA,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBTB,$PI00,$IX00,$X001,$LP01,$LT1B,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PMBL,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X014,$S01B,$ME02,$QPBT,$SR06,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSHG,$TW01,$MT10A,$UTPB,$WTSC,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE40HF052836?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E25JF256997?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,22 +1025,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D15" t="n">
-        <v>92600</v>
+        <v>90600</v>
       </c>
       <c r="E15" t="n">
-        <v>39284</v>
+        <v>61038</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100D Ludicrous Performance All-Wheel Drive</t>
+          <t>100D Long Range All-Wheel Drive</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Midnight Silver Metallic Paint</t>
+          <t>Pearl White Multi-Coat Paint</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1050,14 +1050,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APFB,$APH2,$APBS,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDBO,$X026,$DRLH,$AF02,$FG02,$FR01,$TD00,$X007,$X011,$INBPB,$PI01,$IX01,$X001,$LP01,$LT3B,$MI02,$X037,$MDLX,$DV4W,$X024,$X003,$PMNG,$PK00,$X031,$PF01,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02B,$ME02,$QLPB,$SR04,$SP00,$X021,$SC04,$SU01,$TP03,$TRA1,$TR01,$TIP0,$DSH7,$TW00,$MT10L,$UTAB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH4,$APPF,$X028,$BTX6,$BS00,$CC04,$BCMB,$CH04,$CF00,$CW02,$COUS,$X040,$IDOK,$X026,$DRLH,$DU00,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INLFC,$PI01,$IX00,$X001,$LP01,$LT5C,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PPSW,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02C,$ME02,$QLFC,$SR06,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSHG,$TW01,$MT10A,$UTZW,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCAE42HF070457?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E43FF106511?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1066,22 +1066,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D16" t="n">
-        <v>93500</v>
+        <v>92000</v>
       </c>
       <c r="E16" t="n">
-        <v>20102</v>
+        <v>43354</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>100D Ludicrous Performance All-Wheel Drive</t>
+          <t>100D Long Range All-Wheel Drive</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Solid Black Paint</t>
+          <t>Midnight Silver Metallic Paint</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APFB,$APH4,$APBS,$X028,$BTX6,$PX6D,$BS00,$CC04,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDBO,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPP,$PI01,$IX00,$X001,$LP01,$LT5P,$MI02,$X037,$MDLX,$DV4W,$X024,$X003,$PBSB,$PK00,$X031,$PF01,$X044,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02P,$ME02,$QLPP,$SR06,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSH5,$TW01,$MT10L,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH4,$APPF,$X028,$BTX6,$BS00,$CC02,$BCMB,$CH04,$CF00,$CW00,$COUS,$X040,$IDCF,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INLPP,$PI00,$IX00,$X001,$LP01,$LT5P,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PMNG,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X014,$S02P,$ME02,$QLPP,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSHG,$TW01,$MT10A,$UTZW,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE21JF109601?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E27JF259285?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1110,10 +1110,10 @@
         <v>2018</v>
       </c>
       <c r="D17" t="n">
-        <v>93900</v>
+        <v>92200</v>
       </c>
       <c r="E17" t="n">
-        <v>33689</v>
+        <v>34231</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pearl White Multi-Coat Paint</t>
+          <t>Deep Blue Metallic Paint</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1132,14 +1132,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$BS00,$CC02,$BCMB,$CH04,$CF00,$CW02,$COUS,$X040,$IDBA,$X026,$DRLH,$DU00,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBFW,$PI01,$IX00,$X001,$LP01,$LT3W,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PPSW,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02W,$ME02,$QLFW,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSHG,$TW01,$MT10A,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH4,$APPF,$X028,$BTX6,$BS00,$CC04,$BCMB,$CH04,$CF00,$CW00,$COUS,$X040,$IDOK,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INLPC,$PI00,$IX00,$X001,$LP01,$LT5C,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PPSB,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X014,$S02C,$ME02,$QLPC,$SR06,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSHG,$TW01,$MT10A,$UTZW,$WT20,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE27JF112003?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E21JF266541?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1148,22 +1148,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D18" t="n">
-        <v>94700</v>
+        <v>92600</v>
       </c>
       <c r="E18" t="n">
-        <v>15998</v>
+        <v>39284</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>100D Long Range All-Wheel Drive</t>
+          <t>100D Ludicrous Performance All-Wheel Drive</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Obsidian Black Metallic Paint</t>
+          <t>Midnight Silver Metallic Paint</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1173,14 +1173,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$BS00,$CC12,$BCMB,$CH04,$CF00,$CW02,$COUS,$X040,$IDBO,$X026,$DRLH,$DU00,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$PI01,$IX00,$X001,$LP01,$LT5P,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PMBL,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX1,$RENA,$RFPX,$USSB,$X013,$S02P,$ME02,$QLFP,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSHG,$TW01,$MT10A,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APFB,$APH2,$APBS,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDBO,$X026,$DRLH,$AF02,$FG02,$FR01,$TD00,$X007,$X011,$INBPB,$PI01,$IX01,$X001,$LP01,$LT3B,$MI02,$X037,$MDLX,$DV4W,$X024,$X003,$PMNG,$PK00,$X031,$PF01,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02B,$ME02,$QLPB,$SR04,$SP00,$X021,$SC04,$SU01,$TP03,$TRA1,$TR01,$TIP0,$DSH7,$TW00,$MT10L,$UTAB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE20JF109668?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E23JF257291?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D19" t="n">
-        <v>97100</v>
+        <v>93500</v>
       </c>
       <c r="E19" t="n">
-        <v>38114</v>
+        <v>20102</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>100D Long Range All-Wheel Drive</t>
+          <t>100D Ludicrous Performance All-Wheel Drive</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Deep Blue Metallic Paint</t>
+          <t>Solid Black Paint</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1214,14 +1214,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH4,$APPF,$X028,$BTX6,$BS00,$CC02,$BCMB,$CH04,$CF00,$CW00,$COUS,$X040,$IDOK,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INLFC,$PI00,$IX00,$X001,$LP01,$LT5C,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PPSB,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X014,$S02C,$ME02,$QLFC,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSHG,$TW01,$MT10A,$UTZW,$WTSC,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APFB,$APH4,$APBS,$X028,$BTX6,$PX6D,$BS00,$CC04,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDBO,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPP,$PI01,$IX00,$X001,$LP01,$LT5P,$MI02,$X037,$MDLX,$DV4W,$X024,$X003,$PBSB,$PK00,$X031,$PF01,$X044,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02P,$ME02,$QLPP,$SR06,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSH5,$TW01,$MT10L,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE43JF094827?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E21JF249755?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1233,19 +1233,19 @@
         <v>2018</v>
       </c>
       <c r="D20" t="n">
-        <v>98200</v>
+        <v>93900</v>
       </c>
       <c r="E20" t="n">
-        <v>35506</v>
+        <v>33689</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>100D Ludicrous Performance All-Wheel Drive</t>
+          <t>100D Long Range All-Wheel Drive</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Obsidian Black Metallic Paint</t>
+          <t>Pearl White Multi-Coat Paint</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1255,14 +1255,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH4,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPW,$PI01,$IX00,$X001,$LP01,$LT3W,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PMBL,$PK00,$X031,$PF01,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02W,$ME02,$QLPW,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSHG,$TW01,$MT10L,$UTSB,$WTSC,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$BS00,$CC02,$BCMB,$CH04,$CF00,$CW02,$COUS,$X040,$IDBA,$X026,$DRLH,$DU00,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBFW,$PI01,$IX00,$X001,$LP01,$LT3W,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PPSW,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02W,$ME02,$QLFW,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSHG,$TW01,$MT10A,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE29JF103027?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E20JF260892?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1274,10 +1274,10 @@
         <v>2018</v>
       </c>
       <c r="D21" t="n">
-        <v>98900</v>
+        <v>94700</v>
       </c>
       <c r="E21" t="n">
-        <v>22704</v>
+        <v>15998</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Solid Black Paint</t>
+          <t>Obsidian Black Metallic Paint</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1296,14 +1296,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$BS00,$CC02,$BCMB,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU00,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPP,$PI01,$IX00,$X001,$LP01,$LT5P,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PBSB,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02P,$ME02,$QLPP,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSHG,$TW01,$MT10A,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$BS00,$CC12,$BCMB,$CH04,$CF00,$CW02,$COUS,$X040,$IDBO,$X026,$DRLH,$DU00,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$PI01,$IX00,$X001,$LP01,$LT5P,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PMBL,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX1,$RENA,$RFPX,$USSB,$X013,$S02P,$ME02,$QLFP,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSHG,$TW01,$MT10A,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCAE43JF089749?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E21JF265499?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1315,19 +1315,19 @@
         <v>2018</v>
       </c>
       <c r="D22" t="n">
-        <v>100700</v>
+        <v>97100</v>
       </c>
       <c r="E22" t="n">
-        <v>38634</v>
+        <v>38114</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100D Ludicrous Performance All-Wheel Drive</t>
+          <t>100D Long Range All-Wheel Drive</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Midnight Silver Metallic Paint</t>
+          <t>Deep Blue Metallic Paint</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1337,14 +1337,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC04,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPP,$PI01,$IX00,$X001,$LP01,$LT5P,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PMNG,$PK00,$X031,$PF01,$X044,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02P,$ME02,$QLPP,$SR06,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSH5,$TW01,$MT10L,$UTSB,$WTSC,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU00,$X041,$APF2,$APH4,$APPF,$X028,$BTX6,$BS00,$CC02,$BCMB,$CH04,$CF00,$CW00,$COUS,$X040,$IDOK,$X026,$DRLH,$DU00,$AF00,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INLFC,$PI00,$IX00,$X001,$LP01,$LT5C,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PPSB,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X014,$S02C,$ME02,$QLFC,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSHG,$TW01,$MT10A,$UTZW,$WTSC,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE47JF088724?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E28JF262731?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1356,10 +1356,10 @@
         <v>2018</v>
       </c>
       <c r="D23" t="n">
-        <v>103800</v>
+        <v>98200</v>
       </c>
       <c r="E23" t="n">
-        <v>37465</v>
+        <v>35506</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Solid Black Paint</t>
+          <t>Obsidian Black Metallic Paint</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1378,14 +1378,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDBO,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPP,$PI01,$IX00,$X001,$LP01,$LT5P,$MI02,$X037,$MDLX,$DV4W,$X024,$X003,$PBSB,$PK00,$X031,$PF01,$X044,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02P,$ME02,$QLPP,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSH5,$TW01,$MT10L,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH4,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPW,$PI01,$IX00,$X001,$LP01,$LT3W,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PMBL,$PK00,$X031,$PF01,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02W,$ME02,$QLPW,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSHG,$TW01,$MT10L,$UTSB,$WTSC,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCDE40KF183087?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E49HF233329?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1394,22 +1394,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D24" t="n">
-        <v>107300</v>
+        <v>98900</v>
       </c>
       <c r="E24" t="n">
-        <v>28466</v>
+        <v>22704</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Performance All-Wheel Drive</t>
+          <t>100D Long Range All-Wheel Drive</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Red Multi-Coat</t>
+          <t>Solid Black Paint</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1419,14 +1419,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR_V2&amp;size=1400&amp;model=mx&amp;options=$MDLX,$MTX04,$PPMR,$WT20,$INLFC,$PI01,$APF2,$APBS,$CC01,$SC04,$ACL1,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP02,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$BS00,$CC02,$BCMB,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU00,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPP,$PI01,$IX00,$X001,$LP01,$LT5P,$MI03,$X037,$MDLX,$DV4W,$X025,$X003,$PBSB,$PK00,$X031,$PF00,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02P,$ME02,$QLPP,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSHG,$TW01,$MT10A,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.tesla.com/mx/order/5YJXCBE44JF138107?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+          <t>https://www.tesla.com/ms/order/5YJSA1E26JF257284?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1438,27 +1438,150 @@
         <v>2018</v>
       </c>
       <c r="D25" t="n">
+        <v>100700</v>
+      </c>
+      <c r="E25" t="n">
+        <v>38634</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>100D Ludicrous Performance All-Wheel Drive</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Midnight Silver Metallic Paint</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Available Now</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC04,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDCF,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPP,$PI01,$IX00,$X001,$LP01,$LT5P,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PMNG,$PK00,$X031,$PF01,$X044,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02P,$ME02,$QLPP,$SR06,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIC4,$DSH5,$TW01,$MT10L,$UTSB,$WTSC,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.tesla.com/ms/order/5YJSA1E22JF263373?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Model X</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D26" t="n">
+        <v>103800</v>
+      </c>
+      <c r="E26" t="n">
+        <v>37465</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>100D Ludicrous Performance All-Wheel Drive</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Solid Black Paint</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Available Now</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH3,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDBO,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBPP,$PI01,$IX00,$X001,$LP01,$LT5P,$MI02,$X037,$MDLX,$DV4W,$X024,$X003,$PBSB,$PK00,$X031,$PF01,$X044,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S02P,$ME02,$QLPP,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSH5,$TW01,$MT10L,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.tesla.com/ms/order/5YJSA1E26JF262582?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Model X</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D27" t="n">
+        <v>107300</v>
+      </c>
+      <c r="E27" t="n">
+        <v>28466</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Performance All-Wheel Drive</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Red Multi-Coat</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Available Now</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR_V2&amp;size=1400&amp;model=mx&amp;options=$MDLX,$MTX04,$PPMR,$WT20,$INLFC,$PI01,$APF2,$APBS,$CC01,$SC04,$ACL1,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.tesla.com/ms/order/5YJSA1E25JF284847?postal=92805&amp;coord=33.8358,-117.9063&amp;redirect=no#payment</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Model X</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D28" t="n">
         <v>117400</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E28" t="n">
         <v>26602</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>100D Ludicrous Performance All-Wheel Drive</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Solid Black Paint</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Available Now</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Available Now</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://static-assets.tesla.com/configurator/compositor?&amp;bkba_opt=2&amp;view=STUD_3QTR&amp;size=1400&amp;model=mx&amp;options=$BP01,$HC00,$AH00,$AD15,$GLFR,$AU01,$X042,$APF2,$APH4,$APPF,$X028,$BTX6,$PX6D,$BS00,$CC02,$BC0R,$CH04,$CF00,$CW02,$COUS,$X040,$IDBA,$X026,$DRLH,$DU01,$AF02,$FMP6,$FG02,$FR01,$TD00,$X007,$X011,$INBWS,$PI01,$IX00,$X001,$LP01,$LT6W,$MI03,$X037,$MDLX,$DV4W,$X024,$X003,$PBSB,$PK00,$X031,$PF01,$X043,$TM00,$BR00,$RCX0,$RENA,$RFPX,$USSB,$X013,$S07W,$ME02,$QLWS,$SR04,$SP00,$X021,$SC04,$SU01,$TRA1,$TR01,$TIP0,$DSHG,$TW01,$MT10L,$UTSB,$WTUT,$YFCC,$CPF0&amp;crop=1400,850,300,130&amp;scalemode=centered</t>
         </is>
